--- a/botwhats/src/Bot/chats/5493515206732@c.us.xlsx
+++ b/botwhats/src/Bot/chats/5493515206732@c.us.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
   <si>
     <t>Fecha</t>
   </si>
@@ -102,6 +102,12 @@
 • Envie un *8* para ver modelos de certificados
  *🤖 IMPORTANTE* si contesta algo diferente a lo de esta lista no podre responderle de manera adecuada. Recuerde que si desea hablar con el instructor debe enviar la palabra *instructor* como mensaje, yo me encargo de avisarle. 📬
 </t>
+  </si>
+  <si>
+    <t>20-08-2021 04:13</t>
+  </si>
+  <si>
+    <t>*El instructor es de Buenos Aires, pero los cursos se dan en todo el pais.*</t>
   </si>
 </sst>
 </file>
@@ -478,7 +484,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B11"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -553,6 +559,22 @@
         <v>10</v>
       </c>
     </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
